--- a/NformTester/NformTester/Keywordscripts/600.10.30.50_DeleteDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.50_DeleteDevice.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="856">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3852,6 +3852,10 @@
   <si>
     <t>"10.146.83.1{TAB}10"</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4788,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6412,7 +6416,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>798</v>
@@ -7517,7 +7521,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>798</v>

--- a/NformTester/NformTester/Keywordscripts/600.10.30.50_DeleteDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.50_DeleteDevice.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7497" uniqueCount="858">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3856,13 +3856,20 @@
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3918,6 +3925,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3999,15 +4013,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4060,10 +4077,15 @@
     <xf numFmtId="58" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4792,8 +4814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5437,6 +5459,12 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>857</v>
+      </c>
       <c r="C22" s="4">
         <v>21</v>
       </c>
